--- a/sagol_project/missing_variables.xlsx
+++ b/sagol_project/missing_variables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ליאור\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ליאור\Sagol_Reut_Naim_Project\sagol_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C360E88B-F1F5-4E8D-B0FE-80252202CF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDFBA0B-D1F2-46A8-989A-4D940BC91072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{442F654F-EBD8-4E33-A20F-3E1B17570950}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{442F654F-EBD8-4E33-A20F-3E1B17570950}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>pctSamplesMissingL</t>
   </si>
@@ -129,30 +129,6 @@
   </si>
   <si>
     <t>pctMissing.d_c</t>
-  </si>
-  <si>
-    <t>msOffscreen-a_a</t>
-  </si>
-  <si>
-    <t>msOffscreen-a_c</t>
-  </si>
-  <si>
-    <t>msOffscreen-d_a</t>
-  </si>
-  <si>
-    <t>msOffscreen-d_c</t>
-  </si>
-  <si>
-    <t>msOnBackground-a_a</t>
-  </si>
-  <si>
-    <t>msOnBackground-a_c</t>
-  </si>
-  <si>
-    <t>msOnBackground-d_a</t>
-  </si>
-  <si>
-    <t>msOnBackground-d_c</t>
   </si>
   <si>
     <t>no</t>
@@ -202,10 +178,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -542,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB89591-446F-4214-924F-396C41E61F2C}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -555,7 +531,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -591,72 +567,72 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
+      <c r="A10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
+      <c r="A11" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>36</v>
+      <c r="A12" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
+      <c r="A13" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -664,7 +640,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -672,7 +648,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -680,7 +656,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -688,7 +664,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -696,7 +672,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -704,7 +680,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -712,7 +688,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -720,7 +696,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -728,7 +704,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -736,7 +712,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -744,7 +720,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -752,7 +728,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -760,7 +736,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -768,15 +744,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>22</v>
+      <c r="A29" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -784,7 +760,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -792,73 +768,9 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39">
         <v>1</v>
       </c>
     </row>
